--- a/src/ChevronMonthlySub.Tests/DataFiles/Chevron June FG 462988.xlsx
+++ b/src/ChevronMonthlySub.Tests/DataFiles/Chevron June FG 462988.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="682">
   <si>
     <t>Date-Shipped</t>
   </si>
@@ -2237,6 +2237,69 @@
 Shipped to CHEVRON #205527, Fresno, CA.</t>
   </si>
   <si>
+    <t>Atlanta Braves</t>
+  </si>
+  <si>
+    <t>386839</t>
+  </si>
+  <si>
+    <t>Freight - Non-Tax Shipped to TEXACO #371107, Lilburn, GA.</t>
+  </si>
+  <si>
+    <t>7363-X3</t>
+  </si>
+  <si>
+    <t>2014 Atlanta Brave 3x3
+Shipped to TEXACO #371107, Lilburn, GA.</t>
+  </si>
+  <si>
+    <t>Braves</t>
+  </si>
+  <si>
+    <t>386994</t>
+  </si>
+  <si>
+    <t>Freight - Non-Tax Shipped to TEXACO #302331, Woodstock, GA.</t>
+  </si>
+  <si>
+    <t>7363-PT</t>
+  </si>
+  <si>
+    <t>2014 Atlanta Brave Pumptopper / trash valet
+Shipped to TEXACO #302331, Woodstock, GA.</t>
+  </si>
+  <si>
+    <t>2014 Atlanta Brave 3x3
+Shipped to TEXACO #302331, Woodstock, GA.</t>
+  </si>
+  <si>
+    <t>JOB 131022-800</t>
+  </si>
+  <si>
+    <t>389401</t>
+  </si>
+  <si>
+    <t>7357-X3</t>
+  </si>
+  <si>
+    <t>Safeway Loyalty $1.00/gal for OR/WA/ID - 3x3  (July 2014)
+Shipped to B1, Mesquite, TX.</t>
+  </si>
+  <si>
+    <t>7361-X4</t>
+  </si>
+  <si>
+    <t>Vons SoCal &amp; Las Vegas  Chevron 3x4 (July 2014)
+Shipped to B1, Mesquite, TX.</t>
+  </si>
+  <si>
+    <t>7361-X5</t>
+  </si>
+  <si>
+    <t>Vons SoCal &amp; Las Vegas  Chevron 4x5 (July 2014)
+Shipped to B1, Mesquite, TX.</t>
+  </si>
+  <si>
     <t>388020</t>
   </si>
   <si>
@@ -2247,25 +2310,128 @@
 Shipped to IDL WORLDWIDE, EAST BUTLER, PA.</t>
   </si>
   <si>
-    <t>15148923</t>
-  </si>
-  <si>
-    <t>15148925</t>
-  </si>
-  <si>
-    <t>15150341</t>
-  </si>
-  <si>
-    <t>15148006</t>
-  </si>
-  <si>
-    <t>15146758</t>
-  </si>
-  <si>
-    <t>15145822</t>
-  </si>
-  <si>
-    <t>15146756</t>
+    <t>387813</t>
+  </si>
+  <si>
+    <t>Freight - Non-Tax Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7210-PT</t>
+  </si>
+  <si>
+    <t>Chevron New Station &amp; Grand Opening Pumptopper/Trash Valet
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7211-T-TVT</t>
+  </si>
+  <si>
+    <t>Texaco New Station &amp; Grand Opening Trash Valet
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7298-X4</t>
+  </si>
+  <si>
+    <t>Q2 '13 Chevron 4x4 Sign
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7298-X5</t>
+  </si>
+  <si>
+    <t>Q2 '13 Chevron 5x5 Sign
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7299-X3</t>
+  </si>
+  <si>
+    <t>Q3 '13 Chevron 3x3 Sign - English
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7300-CX48</t>
+  </si>
+  <si>
+    <t>Q2 '13 Texaco Curb Sleeve - 28x46
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7300-CX68</t>
+  </si>
+  <si>
+    <t>Q2 '13 Texaco Curb Sleeve - 42x64
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7300-PDPS</t>
+  </si>
+  <si>
+    <t>Q2 '13 Texaco Pull Down Pole Sign
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7300-PS</t>
+  </si>
+  <si>
+    <t>Q2 '13 Texaco Pole Sign 
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7300-PTE</t>
+  </si>
+  <si>
+    <t>Q2 '13 Texaco Pump Topper Extender
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7314-CS</t>
+  </si>
+  <si>
+    <t>Q4 '13 Chevron Curb Sleeve
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7314-FCP</t>
+  </si>
+  <si>
+    <t>Q4 '13 Chevron FCP
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>7314-RB</t>
+  </si>
+  <si>
+    <t>Q4 '13 Chevron Reader Board (36.625x35.5625)
+Shipped to Chevron Products Company, San Ramon, CA.</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>388756</t>
+  </si>
+  <si>
+    <t>Q3 JOBS</t>
+  </si>
+  <si>
+    <t>386167</t>
+  </si>
+  <si>
+    <t>2Q-3Q 2014 Chevron Field Communication Guide
+Shipped to 131022-800 / 131023-800, Mesquite, TX.</t>
+  </si>
+  <si>
+    <t>7341-FCPCOCOEM</t>
+  </si>
+  <si>
+    <t>2Q-3Q 2014 Chevron Field Communication GuideCOCOEM
+Shipped to 131022-800 / 131023-800, Mesquite, TX.</t>
+  </si>
+  <si>
+    <t>Q2/3 2014 Texaco Field Communication Guide
+Shipped to 131022-800 / 131023-800, Mesquite, TX.</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2502,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2379,30 +2545,8 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2742,8 +2886,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K478" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:K478"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K505" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:K505"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Date-Shipped" dataDxfId="10" dataCellStyle="Normal 2"/>
     <tableColumn id="2" name="PO-Number" dataDxfId="9" dataCellStyle="Normal 2"/>
@@ -3027,11 +3171,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K478"/>
+  <dimension ref="A1:K505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,8 +3967,8 @@
       <c r="A23" s="4">
         <v>41816</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>632</v>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>87</v>
@@ -3856,8 +4000,8 @@
       <c r="A24" s="4">
         <v>41799</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>632</v>
+      <c r="B24" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>56</v>
@@ -3889,8 +4033,8 @@
       <c r="A25" s="4">
         <v>41817</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>632</v>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>101</v>
@@ -3922,8 +4066,8 @@
       <c r="A26" s="4">
         <v>41796</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>632</v>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>47</v>
@@ -3955,8 +4099,8 @@
       <c r="A27" s="4">
         <v>41800</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>632</v>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>40</v>
@@ -3988,8 +4132,8 @@
       <c r="A28" s="4">
         <v>41808</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>632</v>
+      <c r="B28" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>80</v>
@@ -4021,8 +4165,8 @@
       <c r="A29" s="4">
         <v>41802</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>632</v>
+      <c r="B29" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>73</v>
@@ -4054,8 +4198,8 @@
       <c r="A30" s="4">
         <v>41806</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>632</v>
+      <c r="B30" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>77</v>
@@ -4087,8 +4231,8 @@
       <c r="A31" s="4">
         <v>41801</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>632</v>
+      <c r="B31" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>35</v>
@@ -4120,8 +4264,8 @@
       <c r="A32" s="4">
         <v>41800</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>632</v>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>46</v>
@@ -5028,8 +5172,8 @@
       <c r="A58" s="4">
         <v>41802</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>633</v>
+      <c r="B58" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>140</v>
@@ -5061,8 +5205,8 @@
       <c r="A59" s="4">
         <v>41810</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>633</v>
+      <c r="B59" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>181</v>
@@ -5094,8 +5238,8 @@
       <c r="A60" s="4">
         <v>41810</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>633</v>
+      <c r="B60" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>181</v>
@@ -5127,8 +5271,8 @@
       <c r="A61" s="4">
         <v>41820</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>633</v>
+      <c r="B61" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>192</v>
@@ -5160,8 +5304,8 @@
       <c r="A62" s="4">
         <v>41806</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>633</v>
+      <c r="B62" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>159</v>
@@ -5193,8 +5337,8 @@
       <c r="A63" s="4">
         <v>41802</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>633</v>
+      <c r="B63" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>129</v>
@@ -5226,8 +5370,8 @@
       <c r="A64" s="4">
         <v>41813</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>633</v>
+      <c r="B64" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>172</v>
@@ -5259,8 +5403,8 @@
       <c r="A65" s="4">
         <v>41802</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>633</v>
+      <c r="B65" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>135</v>
@@ -5292,8 +5436,8 @@
       <c r="A66" s="4">
         <v>41817</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>633</v>
+      <c r="B66" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>188</v>
@@ -5325,8 +5469,8 @@
       <c r="A67" s="4">
         <v>41807</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>633</v>
+      <c r="B67" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>164</v>
@@ -5358,8 +5502,8 @@
       <c r="A68" s="4">
         <v>41792</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>633</v>
+      <c r="B68" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>113</v>
@@ -5391,8 +5535,8 @@
       <c r="A69" s="4">
         <v>41810</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>633</v>
+      <c r="B69" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>177</v>
@@ -5424,8 +5568,8 @@
       <c r="A70" s="4">
         <v>41792</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>633</v>
+      <c r="B70" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>108</v>
@@ -5457,8 +5601,8 @@
       <c r="A71" s="4">
         <v>41807</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>633</v>
+      <c r="B71" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>169</v>
@@ -5490,8 +5634,8 @@
       <c r="A72" s="4">
         <v>41806</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>633</v>
+      <c r="B72" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>149</v>
@@ -5523,8 +5667,8 @@
       <c r="A73" s="4">
         <v>41806</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>633</v>
+      <c r="B73" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>154</v>
@@ -5556,8 +5700,8 @@
       <c r="A74" s="4">
         <v>41799</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>633</v>
+      <c r="B74" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>117</v>
@@ -5589,8 +5733,8 @@
       <c r="A75" s="4">
         <v>41800</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>633</v>
+      <c r="B75" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>123</v>
@@ -5622,8 +5766,8 @@
       <c r="A76" s="4">
         <v>41803</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>633</v>
+      <c r="B76" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>144</v>
@@ -7336,17 +7480,17 @@
         <v>41810</v>
       </c>
       <c r="B125" s="5">
-        <v>15146758</v>
+        <v>15146759</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="5" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="F125" s="6">
-        <v>197.57</v>
+        <v>214.67</v>
       </c>
       <c r="G125" s="6">
         <v>0</v>
@@ -8912,13 +9056,13 @@
         <v>15146759</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="F170" s="6">
         <v>0</v>
@@ -13423,8 +13567,8 @@
       <c r="A299" s="4">
         <v>41817</v>
       </c>
-      <c r="B299" s="23" t="s">
-        <v>631</v>
+      <c r="B299" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>477</v>
@@ -13458,8 +13602,8 @@
       <c r="A300" s="4">
         <v>41796</v>
       </c>
-      <c r="B300" s="23" t="s">
-        <v>631</v>
+      <c r="B300" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>279</v>
@@ -13491,8 +13635,8 @@
       <c r="A301" s="4">
         <v>41806</v>
       </c>
-      <c r="B301" s="23" t="s">
-        <v>631</v>
+      <c r="B301" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>331</v>
@@ -13524,8 +13668,8 @@
       <c r="A302" s="4">
         <v>41793</v>
       </c>
-      <c r="B302" s="23" t="s">
-        <v>631</v>
+      <c r="B302" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>197</v>
@@ -13557,8 +13701,8 @@
       <c r="A303" s="4">
         <v>41814</v>
       </c>
-      <c r="B303" s="23" t="s">
-        <v>631</v>
+      <c r="B303" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>436</v>
@@ -13590,8 +13734,8 @@
       <c r="A304" s="4">
         <v>41794</v>
       </c>
-      <c r="B304" s="23" t="s">
-        <v>631</v>
+      <c r="B304" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>245</v>
@@ -13623,8 +13767,8 @@
       <c r="A305" s="4">
         <v>41815</v>
       </c>
-      <c r="B305" s="23" t="s">
-        <v>631</v>
+      <c r="B305" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>449</v>
@@ -13656,8 +13800,8 @@
       <c r="A306" s="4">
         <v>41813</v>
       </c>
-      <c r="B306" s="23" t="s">
-        <v>631</v>
+      <c r="B306" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>432</v>
@@ -13689,8 +13833,8 @@
       <c r="A307" s="4">
         <v>41815</v>
       </c>
-      <c r="B307" s="23" t="s">
-        <v>631</v>
+      <c r="B307" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>440</v>
@@ -13722,8 +13866,8 @@
       <c r="A308" s="4">
         <v>41806</v>
       </c>
-      <c r="B308" s="23" t="s">
-        <v>631</v>
+      <c r="B308" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>358</v>
@@ -13755,8 +13899,8 @@
       <c r="A309" s="4">
         <v>41820</v>
       </c>
-      <c r="B309" s="23" t="s">
-        <v>631</v>
+      <c r="B309" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>511</v>
@@ -13788,8 +13932,8 @@
       <c r="A310" s="4">
         <v>41815</v>
       </c>
-      <c r="B310" s="23" t="s">
-        <v>631</v>
+      <c r="B310" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>444</v>
@@ -13821,8 +13965,8 @@
       <c r="A311" s="4">
         <v>41808</v>
       </c>
-      <c r="B311" s="23" t="s">
-        <v>631</v>
+      <c r="B311" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>388</v>
@@ -13854,8 +13998,8 @@
       <c r="A312" s="4">
         <v>41802</v>
       </c>
-      <c r="B312" s="23" t="s">
-        <v>631</v>
+      <c r="B312" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>319</v>
@@ -13887,8 +14031,8 @@
       <c r="A313" s="4">
         <v>41809</v>
       </c>
-      <c r="B313" s="23" t="s">
-        <v>631</v>
+      <c r="B313" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>403</v>
@@ -13920,8 +14064,8 @@
       <c r="A314" s="4">
         <v>41809</v>
       </c>
-      <c r="B314" s="23" t="s">
-        <v>631</v>
+      <c r="B314" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>393</v>
@@ -13953,8 +14097,8 @@
       <c r="A315" s="4">
         <v>41810</v>
       </c>
-      <c r="B315" s="23" t="s">
-        <v>631</v>
+      <c r="B315" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>406</v>
@@ -13986,8 +14130,8 @@
       <c r="A316" s="4">
         <v>41816</v>
       </c>
-      <c r="B316" s="23" t="s">
-        <v>631</v>
+      <c r="B316" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>458</v>
@@ -14019,8 +14163,8 @@
       <c r="A317" s="4">
         <v>41801</v>
       </c>
-      <c r="B317" s="23" t="s">
-        <v>631</v>
+      <c r="B317" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>311</v>
@@ -14052,8 +14196,8 @@
       <c r="A318" s="4">
         <v>41817</v>
       </c>
-      <c r="B318" s="23" t="s">
-        <v>631</v>
+      <c r="B318" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>492</v>
@@ -14085,8 +14229,8 @@
       <c r="A319" s="4">
         <v>41800</v>
       </c>
-      <c r="B319" s="23" t="s">
-        <v>631</v>
+      <c r="B319" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>292</v>
@@ -14118,8 +14262,8 @@
       <c r="A320" s="4">
         <v>41801</v>
       </c>
-      <c r="B320" s="23" t="s">
-        <v>631</v>
+      <c r="B320" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>315</v>
@@ -14151,8 +14295,8 @@
       <c r="A321" s="4">
         <v>41817</v>
       </c>
-      <c r="B321" s="23" t="s">
-        <v>631</v>
+      <c r="B321" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>488</v>
@@ -14184,8 +14328,8 @@
       <c r="A322" s="4">
         <v>41817</v>
       </c>
-      <c r="B322" s="23" t="s">
-        <v>631</v>
+      <c r="B322" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>484</v>
@@ -14217,8 +14361,8 @@
       <c r="A323" s="4">
         <v>41793</v>
       </c>
-      <c r="B323" s="23" t="s">
-        <v>631</v>
+      <c r="B323" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>240</v>
@@ -14250,8 +14394,8 @@
       <c r="A324" s="4">
         <v>41815</v>
       </c>
-      <c r="B324" s="23" t="s">
-        <v>631</v>
+      <c r="B324" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>453</v>
@@ -14283,8 +14427,8 @@
       <c r="A325" s="4">
         <v>41817</v>
       </c>
-      <c r="B325" s="23" t="s">
-        <v>631</v>
+      <c r="B325" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>494</v>
@@ -14316,8 +14460,8 @@
       <c r="A326" s="4">
         <v>41807</v>
       </c>
-      <c r="B326" s="23" t="s">
-        <v>631</v>
+      <c r="B326" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>378</v>
@@ -14349,8 +14493,8 @@
       <c r="A327" s="4">
         <v>41801</v>
       </c>
-      <c r="B327" s="23" t="s">
-        <v>631</v>
+      <c r="B327" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>296</v>
@@ -14382,8 +14526,8 @@
       <c r="A328" s="4">
         <v>41801</v>
       </c>
-      <c r="B328" s="23" t="s">
-        <v>631</v>
+      <c r="B328" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>301</v>
@@ -14415,8 +14559,8 @@
       <c r="A329" s="4">
         <v>41794</v>
       </c>
-      <c r="B329" s="23" t="s">
-        <v>631</v>
+      <c r="B329" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>256</v>
@@ -14448,8 +14592,8 @@
       <c r="A330" s="4">
         <v>41807</v>
       </c>
-      <c r="B330" s="23" t="s">
-        <v>631</v>
+      <c r="B330" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>363</v>
@@ -14481,8 +14625,8 @@
       <c r="A331" s="4">
         <v>41794</v>
       </c>
-      <c r="B331" s="23" t="s">
-        <v>631</v>
+      <c r="B331" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>260</v>
@@ -14514,8 +14658,8 @@
       <c r="A332" s="4">
         <v>41793</v>
       </c>
-      <c r="B332" s="23" t="s">
-        <v>631</v>
+      <c r="B332" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>202</v>
@@ -14547,8 +14691,8 @@
       <c r="A333" s="4">
         <v>41794</v>
       </c>
-      <c r="B333" s="23" t="s">
-        <v>631</v>
+      <c r="B333" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>274</v>
@@ -14580,8 +14724,8 @@
       <c r="A334" s="4">
         <v>41806</v>
       </c>
-      <c r="B334" s="23" t="s">
-        <v>631</v>
+      <c r="B334" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>339</v>
@@ -14613,8 +14757,8 @@
       <c r="A335" s="4">
         <v>41806</v>
       </c>
-      <c r="B335" s="23" t="s">
-        <v>631</v>
+      <c r="B335" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>344</v>
@@ -14646,8 +14790,8 @@
       <c r="A336" s="4">
         <v>41806</v>
       </c>
-      <c r="B336" s="23" t="s">
-        <v>631</v>
+      <c r="B336" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>349</v>
@@ -14679,8 +14823,8 @@
       <c r="A337" s="4">
         <v>41813</v>
       </c>
-      <c r="B337" s="23" t="s">
-        <v>631</v>
+      <c r="B337" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>427</v>
@@ -14712,8 +14856,8 @@
       <c r="A338" s="4">
         <v>41817</v>
       </c>
-      <c r="B338" s="23" t="s">
-        <v>631</v>
+      <c r="B338" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>477</v>
@@ -14745,8 +14889,8 @@
       <c r="A339" s="4">
         <v>41817</v>
       </c>
-      <c r="B339" s="23" t="s">
-        <v>631</v>
+      <c r="B339" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>498</v>
@@ -14778,8 +14922,8 @@
       <c r="A340" s="4">
         <v>41817</v>
       </c>
-      <c r="B340" s="23" t="s">
-        <v>631</v>
+      <c r="B340" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>502</v>
@@ -14811,8 +14955,8 @@
       <c r="A341" s="4">
         <v>41820</v>
       </c>
-      <c r="B341" s="23" t="s">
-        <v>631</v>
+      <c r="B341" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>506</v>
@@ -14844,8 +14988,8 @@
       <c r="A342" s="4">
         <v>41806</v>
       </c>
-      <c r="B342" s="23" t="s">
-        <v>631</v>
+      <c r="B342" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>354</v>
@@ -14877,8 +15021,8 @@
       <c r="A343" s="4">
         <v>41806</v>
       </c>
-      <c r="B343" s="23" t="s">
-        <v>631</v>
+      <c r="B343" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>335</v>
@@ -14910,8 +15054,8 @@
       <c r="A344" s="4">
         <v>41799</v>
       </c>
-      <c r="B344" s="23" t="s">
-        <v>631</v>
+      <c r="B344" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>284</v>
@@ -14943,8 +15087,8 @@
       <c r="A345" s="4">
         <v>41806</v>
       </c>
-      <c r="B345" s="23" t="s">
-        <v>631</v>
+      <c r="B345" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>326</v>
@@ -14976,8 +15120,8 @@
       <c r="A346" s="4">
         <v>41793</v>
       </c>
-      <c r="B346" s="23" t="s">
-        <v>631</v>
+      <c r="B346" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>213</v>
@@ -15009,8 +15153,8 @@
       <c r="A347" s="4">
         <v>41810</v>
       </c>
-      <c r="B347" s="23" t="s">
-        <v>631</v>
+      <c r="B347" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>410</v>
@@ -15042,8 +15186,8 @@
       <c r="A348" s="4">
         <v>41793</v>
       </c>
-      <c r="B348" s="23" t="s">
-        <v>631</v>
+      <c r="B348" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>213</v>
@@ -15075,8 +15219,8 @@
       <c r="A349" s="4">
         <v>41810</v>
       </c>
-      <c r="B349" s="23" t="s">
-        <v>631</v>
+      <c r="B349" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>410</v>
@@ -15108,8 +15252,8 @@
       <c r="A350" s="4">
         <v>41793</v>
       </c>
-      <c r="B350" s="23" t="s">
-        <v>631</v>
+      <c r="B350" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>213</v>
@@ -15141,8 +15285,8 @@
       <c r="A351" s="4">
         <v>41810</v>
       </c>
-      <c r="B351" s="23" t="s">
-        <v>631</v>
+      <c r="B351" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>410</v>
@@ -15174,8 +15318,8 @@
       <c r="A352" s="4">
         <v>41793</v>
       </c>
-      <c r="B352" s="23" t="s">
-        <v>631</v>
+      <c r="B352" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>213</v>
@@ -15207,8 +15351,8 @@
       <c r="A353" s="4">
         <v>41793</v>
       </c>
-      <c r="B353" s="23" t="s">
-        <v>631</v>
+      <c r="B353" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>213</v>
@@ -15240,8 +15384,8 @@
       <c r="A354" s="4">
         <v>41810</v>
       </c>
-      <c r="B354" s="23" t="s">
-        <v>631</v>
+      <c r="B354" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>410</v>
@@ -15273,8 +15417,8 @@
       <c r="A355" s="4">
         <v>41793</v>
       </c>
-      <c r="B355" s="23" t="s">
-        <v>631</v>
+      <c r="B355" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>213</v>
@@ -15306,8 +15450,8 @@
       <c r="A356" s="4">
         <v>41810</v>
       </c>
-      <c r="B356" s="23" t="s">
-        <v>631</v>
+      <c r="B356" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>410</v>
@@ -15339,8 +15483,8 @@
       <c r="A357" s="4">
         <v>41793</v>
       </c>
-      <c r="B357" s="23" t="s">
-        <v>631</v>
+      <c r="B357" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>213</v>
@@ -15372,8 +15516,8 @@
       <c r="A358" s="4">
         <v>41810</v>
       </c>
-      <c r="B358" s="23" t="s">
-        <v>631</v>
+      <c r="B358" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>410</v>
@@ -15405,8 +15549,8 @@
       <c r="A359" s="4">
         <v>41793</v>
       </c>
-      <c r="B359" s="23" t="s">
-        <v>631</v>
+      <c r="B359" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>213</v>
@@ -15438,8 +15582,8 @@
       <c r="A360" s="4">
         <v>41810</v>
       </c>
-      <c r="B360" s="23" t="s">
-        <v>631</v>
+      <c r="B360" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>410</v>
@@ -15471,8 +15615,8 @@
       <c r="A361" s="4">
         <v>41793</v>
       </c>
-      <c r="B361" s="23" t="s">
-        <v>631</v>
+      <c r="B361" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>213</v>
@@ -15504,8 +15648,8 @@
       <c r="A362" s="4">
         <v>41810</v>
       </c>
-      <c r="B362" s="23" t="s">
-        <v>631</v>
+      <c r="B362" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>410</v>
@@ -15537,8 +15681,8 @@
       <c r="A363" s="4">
         <v>41793</v>
       </c>
-      <c r="B363" s="23" t="s">
-        <v>631</v>
+      <c r="B363" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>213</v>
@@ -15570,8 +15714,8 @@
       <c r="A364" s="4">
         <v>41810</v>
       </c>
-      <c r="B364" s="23" t="s">
-        <v>631</v>
+      <c r="B364" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>410</v>
@@ -15603,8 +15747,8 @@
       <c r="A365" s="4">
         <v>41809</v>
       </c>
-      <c r="B365" s="23" t="s">
-        <v>631</v>
+      <c r="B365" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>396</v>
@@ -15636,8 +15780,8 @@
       <c r="A366" s="4">
         <v>41794</v>
       </c>
-      <c r="B366" s="23" t="s">
-        <v>631</v>
+      <c r="B366" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>260</v>
@@ -15669,8 +15813,8 @@
       <c r="A367" s="4">
         <v>41809</v>
       </c>
-      <c r="B367" s="23" t="s">
-        <v>631</v>
+      <c r="B367" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>400</v>
@@ -15702,8 +15846,8 @@
       <c r="A368" s="4">
         <v>41816</v>
       </c>
-      <c r="B368" s="23" t="s">
-        <v>631</v>
+      <c r="B368" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>463</v>
@@ -15735,8 +15879,8 @@
       <c r="A369" s="4">
         <v>41816</v>
       </c>
-      <c r="B369" s="23" t="s">
-        <v>631</v>
+      <c r="B369" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>468</v>
@@ -15768,8 +15912,8 @@
       <c r="A370" s="4">
         <v>41807</v>
       </c>
-      <c r="B370" s="23" t="s">
-        <v>631</v>
+      <c r="B370" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>373</v>
@@ -15801,8 +15945,8 @@
       <c r="A371" s="4">
         <v>41795</v>
       </c>
-      <c r="B371" s="23" t="s">
-        <v>631</v>
+      <c r="B371" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>250</v>
@@ -15834,8 +15978,8 @@
       <c r="A372" s="4">
         <v>41803</v>
       </c>
-      <c r="B372" s="23" t="s">
-        <v>631</v>
+      <c r="B372" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>324</v>
@@ -15867,8 +16011,8 @@
       <c r="A373" s="4">
         <v>41816</v>
       </c>
-      <c r="B373" s="23" t="s">
-        <v>631</v>
+      <c r="B373" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>472</v>
@@ -15900,8 +16044,8 @@
       <c r="A374" s="4">
         <v>41807</v>
       </c>
-      <c r="B374" s="23" t="s">
-        <v>631</v>
+      <c r="B374" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>383</v>
@@ -15933,8 +16077,8 @@
       <c r="A375" s="4">
         <v>41794</v>
       </c>
-      <c r="B375" s="23" t="s">
-        <v>631</v>
+      <c r="B375" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>260</v>
@@ -15966,8 +16110,8 @@
       <c r="A376" s="4">
         <v>41799</v>
       </c>
-      <c r="B376" s="23" t="s">
-        <v>631</v>
+      <c r="B376" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>288</v>
@@ -15999,8 +16143,8 @@
       <c r="A377" s="4">
         <v>41807</v>
       </c>
-      <c r="B377" s="23" t="s">
-        <v>631</v>
+      <c r="B377" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>363</v>
@@ -16938,36 +17082,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="16">
+    <row r="404" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="10">
         <v>41815</v>
       </c>
-      <c r="B404" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="C404" s="17" t="s">
+      <c r="B404" s="11">
+        <v>15148008</v>
+      </c>
+      <c r="C404" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="D404" s="18"/>
-      <c r="E404" s="17" t="s">
+      <c r="D404" s="16"/>
+      <c r="E404" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="F404" s="19">
+      <c r="F404" s="12">
         <v>8.7200000000000006</v>
       </c>
-      <c r="G404" s="19">
-        <v>0</v>
-      </c>
-      <c r="H404" s="20">
-        <v>0</v>
-      </c>
-      <c r="I404" s="17" t="s">
+      <c r="G404" s="12">
+        <v>0</v>
+      </c>
+      <c r="H404" s="13">
+        <v>0</v>
+      </c>
+      <c r="I404" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J404" s="21">
-        <v>1</v>
-      </c>
-      <c r="K404" s="21">
+      <c r="J404" s="14">
+        <v>1</v>
+      </c>
+      <c r="K404" s="14">
         <v>0</v>
       </c>
     </row>
@@ -16975,8 +17119,8 @@
       <c r="A405" s="4">
         <v>41817</v>
       </c>
-      <c r="B405" s="24" t="s">
-        <v>630</v>
+      <c r="B405" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>545</v>
@@ -17008,8 +17152,8 @@
       <c r="A406" s="4">
         <v>41815</v>
       </c>
-      <c r="B406" s="24" t="s">
-        <v>630</v>
+      <c r="B406" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>541</v>
@@ -17041,8 +17185,8 @@
       <c r="A407" s="4">
         <v>41809</v>
       </c>
-      <c r="B407" s="24" t="s">
-        <v>630</v>
+      <c r="B407" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>531</v>
@@ -17074,8 +17218,8 @@
       <c r="A408" s="4">
         <v>41796</v>
       </c>
-      <c r="B408" s="24" t="s">
-        <v>630</v>
+      <c r="B408" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>516</v>
@@ -17107,8 +17251,8 @@
       <c r="A409" s="4">
         <v>41815</v>
       </c>
-      <c r="B409" s="24" t="s">
-        <v>630</v>
+      <c r="B409" s="5">
+        <v>15148008</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>536</v>
@@ -17140,8 +17284,8 @@
       <c r="A410" s="4">
         <v>41801</v>
       </c>
-      <c r="B410" s="24" t="s">
-        <v>630</v>
+      <c r="B410" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>528</v>
@@ -17908,8 +18052,8 @@
       <c r="A432" s="4">
         <v>41820</v>
       </c>
-      <c r="B432" s="23" t="s">
-        <v>627</v>
+      <c r="B432" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>564</v>
@@ -17941,8 +18085,8 @@
       <c r="A433" s="4">
         <v>41809</v>
       </c>
-      <c r="B433" s="23" t="s">
-        <v>627</v>
+      <c r="B433" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>562</v>
@@ -17974,8 +18118,8 @@
       <c r="A434" s="4">
         <v>41806</v>
       </c>
-      <c r="B434" s="23" t="s">
-        <v>627</v>
+      <c r="B434" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>549</v>
@@ -18252,8 +18396,8 @@
       <c r="A442" s="4">
         <v>41807</v>
       </c>
-      <c r="B442" s="23" t="s">
-        <v>628</v>
+      <c r="B442" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>592</v>
@@ -18285,8 +18429,8 @@
       <c r="A443" s="4">
         <v>41807</v>
       </c>
-      <c r="B443" s="23" t="s">
-        <v>628</v>
+      <c r="B443" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>581</v>
@@ -18318,8 +18462,8 @@
       <c r="A444" s="4">
         <v>41807</v>
       </c>
-      <c r="B444" s="23" t="s">
-        <v>628</v>
+      <c r="B444" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>588</v>
@@ -18351,8 +18495,8 @@
       <c r="A445" s="4">
         <v>41810</v>
       </c>
-      <c r="B445" s="23" t="s">
-        <v>628</v>
+      <c r="B445" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>596</v>
@@ -18384,8 +18528,8 @@
       <c r="A446" s="4">
         <v>41792</v>
       </c>
-      <c r="B446" s="23" t="s">
-        <v>628</v>
+      <c r="B446" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>569</v>
@@ -18417,8 +18561,8 @@
       <c r="A447" s="4">
         <v>41800</v>
       </c>
-      <c r="B447" s="23" t="s">
-        <v>628</v>
+      <c r="B447" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>573</v>
@@ -18450,8 +18594,8 @@
       <c r="A448" s="4">
         <v>41815</v>
       </c>
-      <c r="B448" s="23" t="s">
-        <v>628</v>
+      <c r="B448" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>600</v>
@@ -19288,8 +19432,8 @@
       <c r="A472" s="4">
         <v>41815</v>
       </c>
-      <c r="B472" s="23" t="s">
-        <v>629</v>
+      <c r="B472" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>606</v>
@@ -19321,7 +19465,7 @@
       <c r="A473" s="4">
         <v>41815</v>
       </c>
-      <c r="B473" s="23" t="s">
+      <c r="B473" s="5" t="s">
         <v>605</v>
       </c>
       <c r="C473" s="5" t="s">
@@ -19524,6 +19668,943 @@
         <v>0</v>
       </c>
       <c r="K478" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="4">
+        <v>41792</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D479" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E479" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F479" s="6">
+        <v>0</v>
+      </c>
+      <c r="G479" s="6">
+        <v>0</v>
+      </c>
+      <c r="H479" s="7">
+        <v>3</v>
+      </c>
+      <c r="I479" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J479" s="8">
+        <v>0</v>
+      </c>
+      <c r="K479" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="4">
+        <v>41792</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D480" s="9"/>
+      <c r="E480" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="F480" s="6">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G480" s="6">
+        <v>0</v>
+      </c>
+      <c r="H480" s="7">
+        <v>0</v>
+      </c>
+      <c r="I480" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J480" s="8">
+        <v>1</v>
+      </c>
+      <c r="K480" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="4">
+        <v>41793</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D481" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E481" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F481" s="6">
+        <v>0</v>
+      </c>
+      <c r="G481" s="6">
+        <v>0</v>
+      </c>
+      <c r="H481" s="7">
+        <v>2</v>
+      </c>
+      <c r="I481" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J481" s="8">
+        <v>0</v>
+      </c>
+      <c r="K481" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="4">
+        <v>41793</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D482" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F482" s="6">
+        <v>0</v>
+      </c>
+      <c r="G482" s="6">
+        <v>0</v>
+      </c>
+      <c r="H482" s="7">
+        <v>4</v>
+      </c>
+      <c r="I482" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J482" s="8">
+        <v>0</v>
+      </c>
+      <c r="K482" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" s="4">
+        <v>41793</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D483" s="9"/>
+      <c r="E483" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F483" s="6">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G483" s="6">
+        <v>0</v>
+      </c>
+      <c r="H483" s="7">
+        <v>0</v>
+      </c>
+      <c r="I483" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J483" s="8">
+        <v>1</v>
+      </c>
+      <c r="K483" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" s="4">
+        <v>41815</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F484" s="6">
+        <v>0</v>
+      </c>
+      <c r="G484" s="6">
+        <v>0</v>
+      </c>
+      <c r="H484" s="7">
+        <v>4</v>
+      </c>
+      <c r="I484" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J484" s="8">
+        <v>0</v>
+      </c>
+      <c r="K484" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="4">
+        <v>41815</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F485" s="6">
+        <v>0</v>
+      </c>
+      <c r="G485" s="6">
+        <v>0</v>
+      </c>
+      <c r="H485" s="7">
+        <v>6</v>
+      </c>
+      <c r="I485" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J485" s="8">
+        <v>0</v>
+      </c>
+      <c r="K485" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="4">
+        <v>41815</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F486" s="6">
+        <v>0</v>
+      </c>
+      <c r="G486" s="6">
+        <v>0</v>
+      </c>
+      <c r="H486" s="7">
+        <v>1</v>
+      </c>
+      <c r="I486" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J486" s="8">
+        <v>0</v>
+      </c>
+      <c r="K486" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B487" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F487" s="6">
+        <v>0</v>
+      </c>
+      <c r="G487" s="6">
+        <v>0</v>
+      </c>
+      <c r="H487" s="7">
+        <v>10</v>
+      </c>
+      <c r="I487" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J487" s="8">
+        <v>0</v>
+      </c>
+      <c r="K487" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B488" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D488" s="9"/>
+      <c r="E488" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F488" s="6">
+        <v>95.13</v>
+      </c>
+      <c r="G488" s="6">
+        <v>0</v>
+      </c>
+      <c r="H488" s="7">
+        <v>0</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J488" s="8">
+        <v>1</v>
+      </c>
+      <c r="K488" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B489" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F489" s="6">
+        <v>0</v>
+      </c>
+      <c r="G489" s="6">
+        <v>0</v>
+      </c>
+      <c r="H489" s="7">
+        <v>10</v>
+      </c>
+      <c r="I489" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J489" s="8">
+        <v>0</v>
+      </c>
+      <c r="K489" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B490" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F490" s="6">
+        <v>0</v>
+      </c>
+      <c r="G490" s="6">
+        <v>0</v>
+      </c>
+      <c r="H490" s="7">
+        <v>10</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J490" s="8">
+        <v>0</v>
+      </c>
+      <c r="K490" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B491" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F491" s="6">
+        <v>0</v>
+      </c>
+      <c r="G491" s="6">
+        <v>0</v>
+      </c>
+      <c r="H491" s="7">
+        <v>10</v>
+      </c>
+      <c r="I491" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J491" s="8">
+        <v>0</v>
+      </c>
+      <c r="K491" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B492" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F492" s="6">
+        <v>0</v>
+      </c>
+      <c r="G492" s="6">
+        <v>0</v>
+      </c>
+      <c r="H492" s="7">
+        <v>10</v>
+      </c>
+      <c r="I492" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J492" s="8">
+        <v>0</v>
+      </c>
+      <c r="K492" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B493" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F493" s="6">
+        <v>0</v>
+      </c>
+      <c r="G493" s="6">
+        <v>0</v>
+      </c>
+      <c r="H493" s="7">
+        <v>10</v>
+      </c>
+      <c r="I493" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J493" s="8">
+        <v>0</v>
+      </c>
+      <c r="K493" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B494" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F494" s="6">
+        <v>0</v>
+      </c>
+      <c r="G494" s="6">
+        <v>0</v>
+      </c>
+      <c r="H494" s="7">
+        <v>10</v>
+      </c>
+      <c r="I494" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J494" s="8">
+        <v>0</v>
+      </c>
+      <c r="K494" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B495" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E495" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="F495" s="6">
+        <v>0</v>
+      </c>
+      <c r="G495" s="6">
+        <v>0</v>
+      </c>
+      <c r="H495" s="7">
+        <v>10</v>
+      </c>
+      <c r="I495" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J495" s="8">
+        <v>0</v>
+      </c>
+      <c r="K495" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B496" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F496" s="6">
+        <v>0</v>
+      </c>
+      <c r="G496" s="6">
+        <v>0</v>
+      </c>
+      <c r="H496" s="7">
+        <v>10</v>
+      </c>
+      <c r="I496" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J496" s="8">
+        <v>0</v>
+      </c>
+      <c r="K496" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B497" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F497" s="6">
+        <v>0</v>
+      </c>
+      <c r="G497" s="6">
+        <v>0</v>
+      </c>
+      <c r="H497" s="7">
+        <v>10</v>
+      </c>
+      <c r="I497" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J497" s="8">
+        <v>0</v>
+      </c>
+      <c r="K497" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B498" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F498" s="6">
+        <v>0</v>
+      </c>
+      <c r="G498" s="6">
+        <v>0</v>
+      </c>
+      <c r="H498" s="7">
+        <v>10</v>
+      </c>
+      <c r="I498" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J498" s="8">
+        <v>0</v>
+      </c>
+      <c r="K498" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B499" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F499" s="6">
+        <v>0</v>
+      </c>
+      <c r="G499" s="6">
+        <v>0</v>
+      </c>
+      <c r="H499" s="7">
+        <v>10</v>
+      </c>
+      <c r="I499" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J499" s="8">
+        <v>0</v>
+      </c>
+      <c r="K499" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500" s="4">
+        <v>41800</v>
+      </c>
+      <c r="B500" s="5">
+        <v>15146759</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F500" s="6">
+        <v>0</v>
+      </c>
+      <c r="G500" s="6">
+        <v>0</v>
+      </c>
+      <c r="H500" s="7">
+        <v>10</v>
+      </c>
+      <c r="I500" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J500" s="8">
+        <v>0</v>
+      </c>
+      <c r="K500" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501" s="4">
+        <v>41808</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D501" s="9"/>
+      <c r="E501" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F501" s="6">
+        <v>0</v>
+      </c>
+      <c r="G501" s="6">
+        <v>0</v>
+      </c>
+      <c r="H501" s="7">
+        <v>0</v>
+      </c>
+      <c r="I501" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J501" s="8">
+        <v>1</v>
+      </c>
+      <c r="K501" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" s="4">
+        <v>41808</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D502" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F502" s="6">
+        <v>0</v>
+      </c>
+      <c r="G502" s="6">
+        <v>0</v>
+      </c>
+      <c r="H502" s="7">
+        <v>2</v>
+      </c>
+      <c r="I502" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J502" s="8">
+        <v>0</v>
+      </c>
+      <c r="K502" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A503" s="4">
+        <v>41802</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E503" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F503" s="6">
+        <v>0</v>
+      </c>
+      <c r="G503" s="6">
+        <v>0</v>
+      </c>
+      <c r="H503" s="7">
+        <v>2537</v>
+      </c>
+      <c r="I503" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J503" s="8">
+        <v>0</v>
+      </c>
+      <c r="K503" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A504" s="4">
+        <v>41802</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F504" s="6">
+        <v>0</v>
+      </c>
+      <c r="G504" s="6">
+        <v>0</v>
+      </c>
+      <c r="H504" s="7">
+        <v>131</v>
+      </c>
+      <c r="I504" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J504" s="8">
+        <v>0</v>
+      </c>
+      <c r="K504" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" s="4">
+        <v>41802</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F505" s="6">
+        <v>0</v>
+      </c>
+      <c r="G505" s="6">
+        <v>0</v>
+      </c>
+      <c r="H505" s="7">
+        <v>665</v>
+      </c>
+      <c r="I505" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J505" s="8">
+        <v>0</v>
+      </c>
+      <c r="K505" s="8">
         <v>1</v>
       </c>
     </row>
